--- a/StructureDefinition-visit-type.xlsx
+++ b/StructureDefinition-visit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T15:25:26+00:00</t>
+    <t>2022-05-25T17:10:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-visit-type.xlsx
+++ b/StructureDefinition-visit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T17:10:47+00:00</t>
+    <t>2022-05-25T17:52:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-visit-type.xlsx
+++ b/StructureDefinition-visit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T17:52:37+00:00</t>
+    <t>2022-05-25T18:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-visit-type.xlsx
+++ b/StructureDefinition-visit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T18:55:20+00:00</t>
+    <t>2022-05-25T19:52:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-visit-type.xlsx
+++ b/StructureDefinition-visit-type.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Visit Type</t>
+    <t>Extension : Visit Type</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T19:52:35+00:00</t>
+    <t>2022-05-25T20:34:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-visit-type.xlsx
+++ b/StructureDefinition-visit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T20:34:56+00:00</t>
+    <t>2022-06-09T20:33:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-visit-type.xlsx
+++ b/StructureDefinition-visit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-09T20:33:24+00:00</t>
+    <t>2022-06-10T16:46:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-visit-type.xlsx
+++ b/StructureDefinition-visit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T16:46:34+00:00</t>
+    <t>2022-06-10T18:20:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-visit-type.xlsx
+++ b/StructureDefinition-visit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T18:20:06+00:00</t>
+    <t>2022-06-10T20:09:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-visit-type.xlsx
+++ b/StructureDefinition-visit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T20:09:36+00:00</t>
+    <t>2022-06-10T20:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-visit-type.xlsx
+++ b/StructureDefinition-visit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T20:31:51+00:00</t>
+    <t>2022-06-28T15:12:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-visit-type.xlsx
+++ b/StructureDefinition-visit-type.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Extension : Visit Type</t>
+    <t>ActivityDefinition - Extension : Visit Type</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T15:12:49+00:00</t>
+    <t>2022-07-04T18:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -649,7 +649,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="38.4453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-visit-type.xlsx
+++ b/StructureDefinition-visit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T18:23:06+00:00</t>
+    <t>2022-07-04T18:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-visit-type.xlsx
+++ b/StructureDefinition-visit-type.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ActivityDefinition - Extension : Visit Type</t>
+    <t>Extension : ActivityDefinition - Visit Type</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T18:28:37+00:00</t>
+    <t>2022-07-04T20:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-visit-type.xlsx
+++ b/StructureDefinition-visit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T20:25:49+00:00</t>
+    <t>2022-07-27T15:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -639,42 +639,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="38.4453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-visit-type.xlsx
+++ b/StructureDefinition-visit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T15:29:27+00:00</t>
+    <t>2022-07-27T16:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-visit-type.xlsx
+++ b/StructureDefinition-visit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T16:10:03+00:00</t>
+    <t>2022-07-27T16:26:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-visit-type.xlsx
+++ b/StructureDefinition-visit-type.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T16:26:41+00:00</t>
+    <t>2022-08-01T20:41:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
